--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -939,10 +951,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -986,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1032,28 +1044,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1228,10 +1240,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1275,28 +1287,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1321,28 +1333,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1575,10 +1587,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1622,28 +1634,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1668,28 +1680,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1893,10 +1905,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1940,28 +1952,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1986,28 +1998,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2182,10 +2194,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2229,28 +2241,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2275,28 +2287,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2500,10 +2512,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2547,28 +2559,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2593,28 +2605,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2876,10 +2888,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2923,28 +2935,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2969,28 +2981,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3223,10 +3235,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3270,28 +3282,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3316,28 +3328,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3512,10 +3524,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3559,28 +3571,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3605,28 +3617,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3801,10 +3813,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3848,28 +3860,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3894,28 +3906,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4119,10 +4131,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4166,28 +4178,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4212,28 +4224,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4437,10 +4449,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4484,28 +4496,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4530,28 +4542,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4755,10 +4767,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4802,28 +4814,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4848,28 +4860,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5044,10 +5056,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5091,28 +5103,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5137,28 +5149,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5275,10 +5287,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5322,28 +5334,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5368,28 +5380,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5506,10 +5518,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5553,28 +5565,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5599,28 +5611,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5708,10 +5720,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5755,28 +5767,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5801,28 +5813,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5910,10 +5922,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5957,28 +5969,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6003,28 +6015,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6083,10 +6095,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4728" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -402,10 +450,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="J9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -449,28 +497,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="4">
+      <c r="A11" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="4">
+      <c r="C11" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -495,28 +543,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="4">
+      <c r="B13" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="4">
+      <c r="C13" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="4">
+      <c r="D13" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="4">
+      <c r="E13" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="4">
+      <c r="F13" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="4">
+      <c r="G13" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="4">
+      <c r="H13" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="4">
+      <c r="I13" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -662,10 +710,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="4" t="s">
+      <c r="J18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -709,28 +757,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="4">
+      <c r="A20" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="4">
+      <c r="C20" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="4">
+      <c r="E20" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="4">
+      <c r="F20" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="4">
+      <c r="G20" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="4">
+      <c r="H20" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -755,28 +803,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="4">
+      <c r="B22" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="4">
+      <c r="C22" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="4">
+      <c r="D22" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="4">
+      <c r="E22" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="4">
+      <c r="F22" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="4">
+      <c r="G22" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="4">
+      <c r="H22" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="4">
+      <c r="I22" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -951,10 +999,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="4" t="s">
+      <c r="J28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -998,28 +1046,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="4">
+      <c r="A30" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="4">
+      <c r="B30" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="4">
+      <c r="C30" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="4">
+      <c r="E30" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="4">
+      <c r="F30" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="4">
+      <c r="G30" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="4">
+      <c r="H30" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1044,28 +1092,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="4">
+      <c r="B32" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="4">
+      <c r="C32" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="4">
+      <c r="D32" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="4">
+      <c r="E32" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="4">
+      <c r="F32" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="4">
+      <c r="G32" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="4">
+      <c r="H32" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="4">
+      <c r="I32" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1240,10 +1288,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="4" t="s">
+      <c r="J38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1287,28 +1335,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="4">
+      <c r="A40" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="4">
+      <c r="B40" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="4">
+      <c r="C40" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="4">
+      <c r="E40" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="4">
+      <c r="F40" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="4">
+      <c r="G40" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="4">
+      <c r="H40" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1333,28 +1381,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="4">
+      <c r="B42" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="4">
+      <c r="C42" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="4">
+      <c r="D42" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="4">
+      <c r="E42" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="4">
+      <c r="F42" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="4">
+      <c r="G42" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="4">
+      <c r="H42" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="4">
+      <c r="I42" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1587,10 +1635,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="4" t="s">
+      <c r="J50" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1634,28 +1682,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="4">
+      <c r="A52" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="4">
+      <c r="B52" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="4">
+      <c r="C52" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="4">
+      <c r="E52" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="4">
+      <c r="F52" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="4">
+      <c r="G52" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="4">
+      <c r="H52" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1680,28 +1728,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="4">
+      <c r="B54" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="4">
+      <c r="C54" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="4">
+      <c r="D54" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="4">
+      <c r="E54" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="4">
+      <c r="F54" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="4">
+      <c r="G54" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="4">
+      <c r="H54" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="4">
+      <c r="I54" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1905,10 +1953,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="4" t="s">
+      <c r="J61" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1952,28 +2000,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="4">
+      <c r="A63" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="4">
+      <c r="B63" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="4">
+      <c r="C63" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="4">
+      <c r="E63" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="4">
+      <c r="F63" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="4">
+      <c r="G63" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="4">
+      <c r="H63" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1998,28 +2046,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="4">
+      <c r="B65" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="4">
+      <c r="C65" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="4">
+      <c r="D65" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="4">
+      <c r="E65" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="4">
+      <c r="F65" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="4">
+      <c r="G65" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="4">
+      <c r="H65" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="4">
+      <c r="I65" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2194,10 +2242,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="4" t="s">
+      <c r="J71" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2241,28 +2289,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="4">
+      <c r="A73" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="4">
+      <c r="C73" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="4">
+      <c r="E73" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="4">
+      <c r="F73" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="4">
+      <c r="G73" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="4">
+      <c r="H73" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2287,28 +2335,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="4">
+      <c r="B75" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="4">
+      <c r="C75" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="4">
+      <c r="D75" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="4">
+      <c r="E75" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="4">
+      <c r="F75" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="4">
+      <c r="G75" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="4">
+      <c r="H75" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="4">
+      <c r="I75" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2512,10 +2560,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="4" t="s">
+      <c r="J82" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2559,28 +2607,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="4">
+      <c r="A84" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="4">
+      <c r="B84" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="4">
+      <c r="C84" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="4">
+      <c r="E84" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="4">
+      <c r="F84" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="4">
+      <c r="G84" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="4">
+      <c r="H84" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2605,28 +2653,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="4">
+      <c r="B86" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="4">
+      <c r="C86" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="4">
+      <c r="D86" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="4">
+      <c r="E86" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="4">
+      <c r="F86" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="4">
+      <c r="G86" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="4">
+      <c r="H86" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="4">
+      <c r="I86" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2888,10 +2936,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="4" t="s">
+      <c r="J95" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2935,28 +2983,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="4">
+      <c r="A97" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="4">
+      <c r="B97" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="4">
+      <c r="C97" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="4">
+      <c r="E97" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="4">
+      <c r="F97" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="4">
+      <c r="G97" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="4">
+      <c r="H97" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2981,28 +3029,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="4">
+      <c r="B99" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="4">
+      <c r="C99" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="4">
+      <c r="D99" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="4">
+      <c r="E99" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="4">
+      <c r="F99" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="4">
+      <c r="G99" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="4">
+      <c r="H99" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="4">
+      <c r="I99" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3235,10 +3283,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="4" t="s">
+      <c r="J107" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3282,28 +3330,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="4">
+      <c r="A109" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="4">
+      <c r="B109" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="4">
+      <c r="C109" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="4">
+      <c r="E109" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="4">
+      <c r="F109" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="4">
+      <c r="G109" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="4">
+      <c r="H109" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3328,28 +3376,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="4">
+      <c r="B111" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="4">
+      <c r="C111" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="4">
+      <c r="D111" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="4">
+      <c r="E111" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="4">
+      <c r="F111" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="4">
+      <c r="G111" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="4">
+      <c r="H111" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="4">
+      <c r="I111" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3524,10 +3572,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="4" t="s">
+      <c r="J117" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3571,28 +3619,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="4">
+      <c r="A119" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="4">
+      <c r="C119" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="4">
+      <c r="E119" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="4">
+      <c r="F119" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="4">
+      <c r="G119" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="4">
+      <c r="H119" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3617,28 +3665,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="4">
+      <c r="B121" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="4">
+      <c r="C121" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="4">
+      <c r="D121" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="4">
+      <c r="E121" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="4">
+      <c r="F121" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="4">
+      <c r="G121" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="4">
+      <c r="H121" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="4">
+      <c r="I121" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3813,10 +3861,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="4" t="s">
+      <c r="J127" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3860,28 +3908,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="4">
+      <c r="A129" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="4">
+      <c r="B129" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="4">
+      <c r="C129" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="4">
+      <c r="E129" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="4">
+      <c r="F129" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="4">
+      <c r="G129" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="4">
+      <c r="H129" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3906,28 +3954,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="4">
+      <c r="B131" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="4">
+      <c r="C131" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="4">
+      <c r="D131" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="4">
+      <c r="E131" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="4">
+      <c r="F131" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="4">
+      <c r="G131" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="4">
+      <c r="H131" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="4">
+      <c r="I131" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4131,10 +4179,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="4" t="s">
+      <c r="J138" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4178,28 +4226,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="4">
+      <c r="A140" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="4">
+      <c r="C140" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="4">
+      <c r="G140" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="4">
+      <c r="H140" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4224,28 +4272,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="4">
+      <c r="B142" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="4">
+      <c r="C142" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="4">
+      <c r="D142" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="4">
+      <c r="E142" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="4">
+      <c r="F142" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="4">
+      <c r="G142" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="4">
+      <c r="H142" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="4">
+      <c r="I142" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4449,10 +4497,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="4" t="s">
+      <c r="J149" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4496,28 +4544,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="4">
+      <c r="A151" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="4">
+      <c r="B151" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="4">
+      <c r="C151" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="4">
+      <c r="E151" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="4">
+      <c r="F151" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="4">
+      <c r="G151" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="4">
+      <c r="H151" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4542,28 +4590,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="4">
+      <c r="B153" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="4">
+      <c r="C153" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="4">
+      <c r="D153" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="4">
+      <c r="E153" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="4">
+      <c r="F153" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="4">
+      <c r="G153" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="4">
+      <c r="H153" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="4">
+      <c r="I153" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4767,10 +4815,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="4" t="s">
+      <c r="J160" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4814,28 +4862,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="4">
+      <c r="A162" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="4">
+      <c r="B162" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="4">
+      <c r="C162" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="4">
+      <c r="E162" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="4">
+      <c r="F162" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="4">
+      <c r="G162" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="4">
+      <c r="H162" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4860,28 +4908,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="4">
+      <c r="C164" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="4">
+      <c r="D164" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="4">
+      <c r="I164" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5056,10 +5104,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="4" t="s">
+      <c r="J170" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5103,28 +5151,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="4">
+      <c r="A172" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="4">
+      <c r="C172" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5149,28 +5197,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="4">
+      <c r="B174" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="4">
+      <c r="C174" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="4">
+      <c r="D174" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="4">
+      <c r="E174" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="4">
+      <c r="F174" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="4">
+      <c r="G174" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="4">
+      <c r="H174" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="4">
+      <c r="I174" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5287,10 +5335,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="4" t="s">
+      <c r="J178" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5334,28 +5382,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="4">
+      <c r="A180" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="4">
+      <c r="B180" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="4">
+      <c r="C180" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="4">
+      <c r="E180" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="4">
+      <c r="F180" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="4">
+      <c r="G180" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="4">
+      <c r="H180" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5380,28 +5428,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="4">
+      <c r="B182" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="4">
+      <c r="C182" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="4">
+      <c r="D182" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="4">
+      <c r="E182" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="4">
+      <c r="F182" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="4">
+      <c r="G182" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="4">
+      <c r="H182" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="4">
+      <c r="I182" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5518,10 +5566,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="4" t="s">
+      <c r="J186" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5565,28 +5613,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="4">
+      <c r="A188" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="4">
+      <c r="B188" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="4">
+      <c r="C188" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="4">
+      <c r="E188" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="4">
+      <c r="F188" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="4">
+      <c r="G188" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="4">
+      <c r="H188" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5611,28 +5659,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="4">
+      <c r="B190" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="4">
+      <c r="C190" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="4">
+      <c r="D190" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="4">
+      <c r="E190" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="4">
+      <c r="F190" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="4">
+      <c r="G190" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="4">
+      <c r="H190" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="4">
+      <c r="I190" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5720,10 +5768,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="4" t="s">
+      <c r="J193" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5767,28 +5815,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="4">
+      <c r="A195" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="4">
+      <c r="B195" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="4">
+      <c r="C195" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="4">
+      <c r="E195" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="4">
+      <c r="F195" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="4">
+      <c r="G195" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="4">
+      <c r="H195" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5813,28 +5861,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="4">
+      <c r="B197" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="4">
+      <c r="C197" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="4">
+      <c r="D197" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="4">
+      <c r="E197" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="4">
+      <c r="F197" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="4">
+      <c r="G197" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="4">
+      <c r="H197" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="4">
+      <c r="I197" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5922,10 +5970,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="4" t="s">
+      <c r="J200" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5969,28 +6017,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="4">
+      <c r="A202" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="4">
+      <c r="B202" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="4">
+      <c r="C202" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="4">
+      <c r="E202" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="4">
+      <c r="F202" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="4">
+      <c r="G202" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="4">
+      <c r="H202" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6015,28 +6063,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="4">
+      <c r="B204" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="4">
+      <c r="C204" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="4">
+      <c r="D204" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="4">
+      <c r="E204" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="4">
+      <c r="F204" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="4">
+      <c r="G204" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="4">
+      <c r="H204" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="4">
+      <c r="I204" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6095,10 +6143,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="4" t="s">
+      <c r="J206" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4728" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5910" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -450,10 +468,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -497,28 +515,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="12">
+      <c r="A11" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="12">
+      <c r="B11" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="C11" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D11" t="s" s="12">
+      <c r="D11" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="12">
+      <c r="F11" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -543,28 +561,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="12">
+      <c r="B13" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="12">
+      <c r="C13" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="12">
+      <c r="D13" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="12">
+      <c r="E13" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="12">
+      <c r="F13" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="12">
+      <c r="G13" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="12">
+      <c r="H13" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="12">
+      <c r="I13" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -710,10 +728,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -757,28 +775,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="12">
+      <c r="A20" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="12">
+      <c r="B20" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D20" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E20" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="F20" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="12">
+      <c r="G20" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="12">
+      <c r="H20" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -803,28 +821,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="12">
+      <c r="B22" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="12">
+      <c r="C22" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="12">
+      <c r="D22" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="12">
+      <c r="E22" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="12">
+      <c r="F22" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="12">
+      <c r="G22" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="12">
+      <c r="H22" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="12">
+      <c r="I22" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -999,10 +1017,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -1046,28 +1064,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="12">
+      <c r="A30" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="12">
+      <c r="B30" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="12">
+      <c r="C30" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D30" t="s" s="12">
+      <c r="D30" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="12">
+      <c r="E30" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="12">
+      <c r="F30" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="12">
+      <c r="G30" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="12">
+      <c r="H30" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1092,28 +1110,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="12">
+      <c r="B32" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="12">
+      <c r="C32" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="12">
+      <c r="D32" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="12">
+      <c r="E32" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="12">
+      <c r="F32" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="12">
+      <c r="G32" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="12">
+      <c r="H32" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="12">
+      <c r="I32" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1288,10 +1306,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="K38" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1335,28 +1353,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="12">
+      <c r="A40" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="12">
+      <c r="B40" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="12">
+      <c r="C40" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D40" t="s" s="12">
+      <c r="D40" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="12">
+      <c r="E40" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="12">
+      <c r="F40" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="12">
+      <c r="G40" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="12">
+      <c r="H40" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1381,28 +1399,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="12">
+      <c r="B42" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="12">
+      <c r="C42" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="12">
+      <c r="D42" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="12">
+      <c r="E42" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="12">
+      <c r="F42" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="12">
+      <c r="G42" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="12">
+      <c r="H42" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="12">
+      <c r="I42" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1635,10 +1653,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="J50" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="12" t="s">
+      <c r="K50" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1682,28 +1700,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="12">
+      <c r="A52" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="12">
+      <c r="B52" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="12">
+      <c r="C52" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D52" t="s" s="12">
+      <c r="D52" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="12">
+      <c r="E52" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="12">
+      <c r="F52" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="12">
+      <c r="G52" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="12">
+      <c r="H52" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1728,28 +1746,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="12">
+      <c r="B54" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="12">
+      <c r="C54" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="12">
+      <c r="D54" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="12">
+      <c r="E54" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="12">
+      <c r="F54" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="12">
+      <c r="G54" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="12">
+      <c r="H54" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="12">
+      <c r="I54" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1953,10 +1971,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="12" t="s">
+      <c r="J61" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K61" s="12" t="s">
+      <c r="K61" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -2000,28 +2018,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="12">
+      <c r="A63" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="12">
+      <c r="B63" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="12">
+      <c r="C63" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D63" t="s" s="12">
+      <c r="D63" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="12">
+      <c r="E63" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="12">
+      <c r="F63" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="12">
+      <c r="G63" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="12">
+      <c r="H63" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2046,28 +2064,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="12">
+      <c r="B65" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="12">
+      <c r="C65" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="12">
+      <c r="D65" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="12">
+      <c r="E65" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="12">
+      <c r="F65" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="12">
+      <c r="G65" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="12">
+      <c r="H65" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="12">
+      <c r="I65" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2242,10 +2260,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="12" t="s">
+      <c r="J71" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K71" s="12" t="s">
+      <c r="K71" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2289,28 +2307,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="12">
+      <c r="A73" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="12">
+      <c r="B73" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="12">
+      <c r="C73" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D73" t="s" s="12">
+      <c r="D73" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="12">
+      <c r="E73" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="12">
+      <c r="F73" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="12">
+      <c r="G73" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="12">
+      <c r="H73" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2335,28 +2353,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="12">
+      <c r="B75" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="12">
+      <c r="C75" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="12">
+      <c r="D75" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="12">
+      <c r="E75" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="12">
+      <c r="F75" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="12">
+      <c r="G75" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="12">
+      <c r="H75" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="12">
+      <c r="I75" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2560,10 +2578,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="12" t="s">
+      <c r="J82" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="12" t="s">
+      <c r="K82" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2607,28 +2625,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="12">
+      <c r="A84" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="12">
+      <c r="B84" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="12">
+      <c r="C84" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D84" t="s" s="12">
+      <c r="D84" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="12">
+      <c r="E84" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="12">
+      <c r="F84" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="12">
+      <c r="G84" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="12">
+      <c r="H84" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2653,28 +2671,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="12">
+      <c r="B86" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="12">
+      <c r="C86" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="12">
+      <c r="D86" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="12">
+      <c r="E86" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="12">
+      <c r="F86" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="12">
+      <c r="G86" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="12">
+      <c r="H86" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="12">
+      <c r="I86" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2936,10 +2954,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="12" t="s">
+      <c r="J95" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="12" t="s">
+      <c r="K95" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2983,28 +3001,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="12">
+      <c r="A97" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="12">
+      <c r="B97" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="12">
+      <c r="C97" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D97" t="s" s="12">
+      <c r="D97" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="12">
+      <c r="E97" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="12">
+      <c r="F97" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="12">
+      <c r="G97" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="12">
+      <c r="H97" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3029,28 +3047,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="12">
+      <c r="B99" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="12">
+      <c r="C99" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="12">
+      <c r="D99" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="12">
+      <c r="E99" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="12">
+      <c r="F99" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="12">
+      <c r="G99" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="12">
+      <c r="H99" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="12">
+      <c r="I99" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3283,10 +3301,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="12" t="s">
+      <c r="J107" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K107" s="12" t="s">
+      <c r="K107" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3330,28 +3348,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="12">
+      <c r="A109" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="12">
+      <c r="B109" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="12">
+      <c r="C109" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D109" t="s" s="12">
+      <c r="D109" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="12">
+      <c r="E109" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="12">
+      <c r="F109" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="12">
+      <c r="G109" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="12">
+      <c r="H109" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3376,28 +3394,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="12">
+      <c r="B111" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="12">
+      <c r="C111" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="12">
+      <c r="D111" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="12">
+      <c r="E111" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="12">
+      <c r="F111" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="12">
+      <c r="G111" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="12">
+      <c r="H111" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="12">
+      <c r="I111" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3572,10 +3590,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="12" t="s">
+      <c r="J117" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K117" s="12" t="s">
+      <c r="K117" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3619,28 +3637,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="12">
+      <c r="A119" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="12">
+      <c r="B119" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="12">
+      <c r="C119" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D119" t="s" s="12">
+      <c r="D119" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="12">
+      <c r="E119" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="12">
+      <c r="F119" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="12">
+      <c r="G119" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="12">
+      <c r="H119" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3665,28 +3683,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="12">
+      <c r="B121" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="12">
+      <c r="C121" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="12">
+      <c r="D121" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="12">
+      <c r="E121" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="12">
+      <c r="F121" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="12">
+      <c r="G121" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="12">
+      <c r="H121" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="12">
+      <c r="I121" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3861,10 +3879,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="12" t="s">
+      <c r="J127" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K127" s="12" t="s">
+      <c r="K127" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3908,28 +3926,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="12">
+      <c r="A129" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="12">
+      <c r="B129" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="12">
+      <c r="C129" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D129" t="s" s="12">
+      <c r="D129" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="12">
+      <c r="E129" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="12">
+      <c r="F129" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="12">
+      <c r="G129" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="12">
+      <c r="H129" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3954,28 +3972,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="12">
+      <c r="B131" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="12">
+      <c r="C131" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="12">
+      <c r="D131" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="12">
+      <c r="E131" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="12">
+      <c r="F131" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="12">
+      <c r="G131" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="12">
+      <c r="H131" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="12">
+      <c r="I131" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4179,10 +4197,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="12" t="s">
+      <c r="J138" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K138" s="12" t="s">
+      <c r="K138" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4226,28 +4244,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="12">
+      <c r="A140" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="12">
+      <c r="C140" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D140" t="s" s="12">
+      <c r="D140" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F140" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="12">
+      <c r="G140" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="12">
+      <c r="H140" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4272,28 +4290,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="12">
+      <c r="B142" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="12">
+      <c r="C142" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="12">
+      <c r="D142" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="12">
+      <c r="E142" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="12">
+      <c r="F142" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="12">
+      <c r="G142" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="12">
+      <c r="H142" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="12">
+      <c r="I142" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4497,10 +4515,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="12" t="s">
+      <c r="J149" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K149" s="12" t="s">
+      <c r="K149" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4544,28 +4562,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="12">
+      <c r="A151" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="12">
+      <c r="B151" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="12">
+      <c r="C151" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D151" t="s" s="12">
+      <c r="D151" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="12">
+      <c r="E151" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="12">
+      <c r="F151" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="12">
+      <c r="G151" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="12">
+      <c r="H151" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4590,28 +4608,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="12">
+      <c r="B153" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="12">
+      <c r="C153" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="12">
+      <c r="D153" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="12">
+      <c r="E153" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="12">
+      <c r="F153" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="12">
+      <c r="G153" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="12">
+      <c r="H153" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="12">
+      <c r="I153" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4815,10 +4833,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="12" t="s">
+      <c r="J160" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K160" s="12" t="s">
+      <c r="K160" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4862,28 +4880,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="12">
+      <c r="A162" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="12">
+      <c r="B162" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="12">
+      <c r="C162" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D162" t="s" s="12">
+      <c r="D162" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="12">
+      <c r="E162" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="12">
+      <c r="F162" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="12">
+      <c r="G162" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="12">
+      <c r="H162" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4908,28 +4926,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="12">
+      <c r="C164" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="12">
+      <c r="D164" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="12">
+      <c r="I164" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5104,10 +5122,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="12" t="s">
+      <c r="J170" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K170" s="12" t="s">
+      <c r="K170" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5151,28 +5169,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="12">
+      <c r="A172" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="12">
+      <c r="C172" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D172" t="s" s="12">
+      <c r="D172" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5197,28 +5215,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="12">
+      <c r="B174" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="12">
+      <c r="C174" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="12">
+      <c r="D174" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="12">
+      <c r="E174" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="12">
+      <c r="F174" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="12">
+      <c r="G174" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="12">
+      <c r="H174" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="12">
+      <c r="I174" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5335,10 +5353,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="12" t="s">
+      <c r="J178" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K178" s="12" t="s">
+      <c r="K178" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5382,28 +5400,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="12">
+      <c r="A180" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="12">
+      <c r="B180" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="12">
+      <c r="C180" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D180" t="s" s="12">
+      <c r="D180" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="12">
+      <c r="E180" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="12">
+      <c r="F180" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="12">
+      <c r="G180" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="12">
+      <c r="H180" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5428,28 +5446,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="12">
+      <c r="B182" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="12">
+      <c r="C182" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="12">
+      <c r="D182" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="12">
+      <c r="E182" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="12">
+      <c r="F182" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="12">
+      <c r="G182" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="12">
+      <c r="H182" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="12">
+      <c r="I182" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5566,10 +5584,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="12" t="s">
+      <c r="J186" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="12" t="s">
+      <c r="K186" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5613,28 +5631,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="12">
+      <c r="A188" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="12">
+      <c r="B188" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="12">
+      <c r="C188" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D188" t="s" s="12">
+      <c r="D188" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="12">
+      <c r="E188" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="12">
+      <c r="F188" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="12">
+      <c r="G188" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="12">
+      <c r="H188" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5659,28 +5677,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="12">
+      <c r="B190" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="12">
+      <c r="C190" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="12">
+      <c r="D190" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="12">
+      <c r="E190" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="12">
+      <c r="F190" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="12">
+      <c r="G190" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="12">
+      <c r="H190" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="12">
+      <c r="I190" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5768,10 +5786,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="12" t="s">
+      <c r="J193" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K193" s="12" t="s">
+      <c r="K193" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5815,28 +5833,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="12">
+      <c r="A195" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="12">
+      <c r="B195" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="12">
+      <c r="C195" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D195" t="s" s="12">
+      <c r="D195" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="12">
+      <c r="E195" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="12">
+      <c r="F195" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="12">
+      <c r="G195" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="12">
+      <c r="H195" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5861,28 +5879,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="12">
+      <c r="B197" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="12">
+      <c r="C197" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="12">
+      <c r="D197" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="12">
+      <c r="E197" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="12">
+      <c r="F197" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="12">
+      <c r="G197" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="12">
+      <c r="H197" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="12">
+      <c r="I197" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5970,10 +5988,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="12" t="s">
+      <c r="J200" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K200" s="12" t="s">
+      <c r="K200" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -6017,28 +6035,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="12">
+      <c r="A202" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="12">
+      <c r="B202" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="12">
+      <c r="C202" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D202" t="s" s="12">
+      <c r="D202" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="12">
+      <c r="E202" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="12">
+      <c r="F202" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="12">
+      <c r="G202" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="12">
+      <c r="H202" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6063,28 +6081,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="12">
+      <c r="B204" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="12">
+      <c r="C204" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="12">
+      <c r="D204" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="12">
+      <c r="E204" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="12">
+      <c r="F204" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="12">
+      <c r="G204" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="12">
+      <c r="H204" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="12">
+      <c r="I204" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6143,10 +6161,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="12" t="s">
+      <c r="J206" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K206" s="12" t="s">
+      <c r="K206" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
